--- a/Travel_Recommendation_Phase plan.docx.xlsx
+++ b/Travel_Recommendation_Phase plan.docx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marga\Documents\Personal Project\Travel Recommendation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0EA149-9803-4083-99EB-28B1303AD831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1018A4-328F-4E6A-82F2-001988654F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24154" yWindow="-2104" windowWidth="24267" windowHeight="13023" xr2:uid="{DD90A12F-D5C8-4456-BF8D-7851F79E00C3}"/>
   </bookViews>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:B155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A75" sqref="A75"/>
